--- a/SchedulingData/static3/pso/scheduling1_10.xlsx
+++ b/SchedulingData/static3/pso/scheduling1_10.xlsx
@@ -462,78 +462,78 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>38.3</v>
+        <v>70.2</v>
       </c>
       <c r="E2" t="n">
-        <v>27.36</v>
+        <v>24.66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>70.2</v>
       </c>
       <c r="D3" t="n">
-        <v>73</v>
+        <v>107.1</v>
       </c>
       <c r="E3" t="n">
-        <v>24.9</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>141.44</v>
+        <v>84.98</v>
       </c>
       <c r="E4" t="n">
-        <v>22.656</v>
+        <v>25.632</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>77.68000000000001</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>25.392</v>
+        <v>24.72</v>
       </c>
     </row>
     <row r="6">
@@ -542,17 +542,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
         <v>77.68000000000001</v>
       </c>
-      <c r="D6" t="n">
-        <v>157.28</v>
-      </c>
       <c r="E6" t="n">
-        <v>20.052</v>
+        <v>25.392</v>
       </c>
     </row>
     <row r="7">
@@ -561,93 +561,93 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>107.1</v>
       </c>
       <c r="D7" t="n">
-        <v>55.88</v>
+        <v>169.4</v>
       </c>
       <c r="E7" t="n">
-        <v>25.112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>71.09999999999999</v>
+        <v>48</v>
       </c>
       <c r="E8" t="n">
-        <v>25.06</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>55.88</v>
+        <v>77.68000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>134.68</v>
+        <v>111.52</v>
       </c>
       <c r="E9" t="n">
-        <v>19.832</v>
+        <v>23.148</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>38.3</v>
+        <v>84.98</v>
       </c>
       <c r="D10" t="n">
-        <v>108.1</v>
+        <v>160.38</v>
       </c>
       <c r="E10" t="n">
-        <v>23.96</v>
+        <v>20.692</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>111.52</v>
       </c>
       <c r="D11" t="n">
-        <v>34.04</v>
+        <v>171.62</v>
       </c>
       <c r="E11" t="n">
-        <v>27.296</v>
+        <v>19.748</v>
       </c>
     </row>
     <row r="12">
@@ -656,74 +656,74 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>108.1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>178.5</v>
+        <v>60.88</v>
       </c>
       <c r="E12" t="n">
-        <v>20.04</v>
+        <v>25.112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>141.44</v>
+        <v>160.38</v>
       </c>
       <c r="D13" t="n">
-        <v>192.4</v>
+        <v>204.82</v>
       </c>
       <c r="E13" t="n">
-        <v>19.18</v>
+        <v>17.388</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>34.04</v>
+        <v>60.88</v>
       </c>
       <c r="D14" t="n">
-        <v>97.90000000000001</v>
+        <v>130.28</v>
       </c>
       <c r="E14" t="n">
-        <v>24.04</v>
+        <v>21.272</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>178.5</v>
+        <v>171.62</v>
       </c>
       <c r="D15" t="n">
-        <v>232.74</v>
+        <v>233.82</v>
       </c>
       <c r="E15" t="n">
-        <v>16.736</v>
+        <v>17.108</v>
       </c>
     </row>
     <row r="16">
@@ -732,74 +732,74 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>97.90000000000001</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>187.4</v>
+        <v>149.48</v>
       </c>
       <c r="E16" t="n">
-        <v>18.72</v>
+        <v>20.352</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>192.4</v>
+        <v>169.4</v>
       </c>
       <c r="D17" t="n">
-        <v>267.38</v>
+        <v>240.84</v>
       </c>
       <c r="E17" t="n">
-        <v>14.812</v>
+        <v>13.436</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>232.74</v>
+        <v>233.82</v>
       </c>
       <c r="D18" t="n">
-        <v>274.54</v>
+        <v>282.16</v>
       </c>
       <c r="E18" t="n">
-        <v>14.176</v>
+        <v>14.404</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>134.68</v>
+        <v>130.28</v>
       </c>
       <c r="D19" t="n">
-        <v>194.76</v>
+        <v>204.08</v>
       </c>
       <c r="E19" t="n">
-        <v>15.464</v>
+        <v>16.512</v>
       </c>
     </row>
     <row r="20">
@@ -808,74 +808,74 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>71.09999999999999</v>
+        <v>204.82</v>
       </c>
       <c r="D20" t="n">
-        <v>120.8</v>
+        <v>260</v>
       </c>
       <c r="E20" t="n">
-        <v>21.22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>157.28</v>
+        <v>48</v>
       </c>
       <c r="D21" t="n">
-        <v>212.36</v>
+        <v>132.4</v>
       </c>
       <c r="E21" t="n">
-        <v>16.664</v>
+        <v>21.08</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>194.76</v>
+        <v>204.08</v>
       </c>
       <c r="D22" t="n">
-        <v>263.56</v>
+        <v>250.24</v>
       </c>
       <c r="E22" t="n">
-        <v>10.704</v>
+        <v>13.036</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>120.8</v>
+        <v>132.4</v>
       </c>
       <c r="D23" t="n">
-        <v>177.64</v>
+        <v>192.7</v>
       </c>
       <c r="E23" t="n">
-        <v>17.656</v>
+        <v>17.16</v>
       </c>
     </row>
     <row r="24">
@@ -884,36 +884,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>187.4</v>
+        <v>149.48</v>
       </c>
       <c r="D24" t="n">
-        <v>268.92</v>
+        <v>203.14</v>
       </c>
       <c r="E24" t="n">
-        <v>16.168</v>
+        <v>17.096</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>212.36</v>
+        <v>192.7</v>
       </c>
       <c r="D25" t="n">
-        <v>289.36</v>
+        <v>254.52</v>
       </c>
       <c r="E25" t="n">
-        <v>13.064</v>
+        <v>14.608</v>
       </c>
     </row>
   </sheetData>
